--- a/biology/Botanique/Emmanuel_von_Canal/Emmanuel_von_Canal.xlsx
+++ b/biology/Botanique/Emmanuel_von_Canal/Emmanuel_von_Canal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Emmanuel Malabaila, comte von Canal, né le 3 juin 1745 à Vienne et mort le 20 février 1826 à Prague, est un officier, philanthrope et botaniste, considéré comme un important réformateur agricole et citoyen d'honneur de Prague.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'une vieille famille noble italienne (it), Emmanuel Malabayla von Canal est le fils de Ludwig Malabaila di Castellinaldo, conte di Canale, Graf von Canal (de), et de la comtesse Mária Anna Pálffy de Erdöd (petite-fille de János Pálffy). Il est l'oncle du marquis Joseph Terzi. Il épouse Maria Chotek, veuve du comte Johann Baptist Taaffe, fille de Rudolph Chotek von Chotkow (de) et petite-fille de Wenzel Norbert Octavian Graf Kinsky (de).
 Canal est au service militaire royal jusqu'en 1770, avec le grade de lieutenant-colonel. En 1768, il devient chambellan royal et conseiller privé, et en 1810, un véritable conseiller privé.
@@ -545,7 +559,9 @@
           <t>Honneurs et hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est fait citoyen d'honneur de la ville de Prague.
 </t>
